--- a/biology/Zoologie/Conus_buxeus/Conus_buxeus.xlsx
+++ b/biology/Zoologie/Conus_buxeus/Conus_buxeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus buxeus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 30 mm et 135 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans le Pacifique indo-occidental.
 </t>
@@ -576,17 +592,125 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus buxeus a été décrite pour la première fois en 1798 par le malacologiste allemand Peter Friedrich Röding (1767-1846) dans la publication intitulée « Catalogus cimeliorum e tribus regnis naturæ quæ olim collegerat Joa »[1],[2].
-Synonymes
-Conus (Dendroconus) buxeus (Röding, 1798) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus buxeus a été décrite pour la première fois en 1798 par le malacologiste allemand Peter Friedrich Röding (1767-1846) dans la publication intitulée « Catalogus cimeliorum e tribus regnis naturæ quæ olim collegerat Joa »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dendroconus) buxeus (Röding, 1798) · appellation alternative
 Cucullus buxeus Röding, 1798 · non accepté (combinaison originale)
-Dendroconus buxeus (Röding, 1798) · non accepté
-Sous-espèces
-Conus buxeus buxeu (Röding, 1798)
-Conus buxeus loroisi Kiener, 1846, accepté en tant que Conus loroisi Kiener, 1846
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus buxeus dans les principales bases sont les suivants :
+Dendroconus buxeus (Röding, 1798) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus buxeus buxeu (Röding, 1798)
+Conus buxeus loroisi Kiener, 1846, accepté en tant que Conus loroisi Kiener, 1846</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_buxeus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus buxeus dans les principales bases sont les suivants :
 CoL : XX3K - GBIF : 5795813 - iNaturalist : 956487 - WoRMS : 428942
 </t>
         </is>
